--- a/data/本机与对方号码都有.xlsx
+++ b/data/本机与对方号码都有.xlsx
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="G247" sqref="G247"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="G241" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1123,7 +1123,7 @@
         <v>1056</v>
       </c>
       <c r="E2" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1152,7 +1152,7 @@
         <v>1311</v>
       </c>
       <c r="E3" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1179,7 +1179,7 @@
         <v>1024</v>
       </c>
       <c r="E4" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1206,7 +1206,7 @@
         <v>1025</v>
       </c>
       <c r="E5" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1233,7 +1233,7 @@
         <v>1854</v>
       </c>
       <c r="E6" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1260,7 +1260,7 @@
         <v>1728</v>
       </c>
       <c r="E7" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         <v>1649</v>
       </c>
       <c r="E8" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1314,7 +1314,7 @@
         <v>1918</v>
       </c>
       <c r="E9" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1341,7 +1341,7 @@
         <v>2325</v>
       </c>
       <c r="E10" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>1843</v>
       </c>
       <c r="E11" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>1934</v>
       </c>
       <c r="E12" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1422,7 +1422,7 @@
         <v>1735</v>
       </c>
       <c r="E13" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1449,7 +1449,7 @@
         <v>1846</v>
       </c>
       <c r="E14" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1476,7 +1476,7 @@
         <v>2305</v>
       </c>
       <c r="E15" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1503,7 +1503,7 @@
         <v>2301</v>
       </c>
       <c r="E16" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1530,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -1557,7 +1557,7 @@
         <v>1307</v>
       </c>
       <c r="E18" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -1584,7 +1584,7 @@
         <v>1807</v>
       </c>
       <c r="E19" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -1611,7 +1611,7 @@
         <v>1101</v>
       </c>
       <c r="E20" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -1638,7 +1638,7 @@
         <v>1952</v>
       </c>
       <c r="E21" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1665,7 +1665,7 @@
         <v>1741</v>
       </c>
       <c r="E22" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1692,7 +1692,7 @@
         <v>2159</v>
       </c>
       <c r="E23" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -1719,7 +1719,7 @@
         <v>2303</v>
       </c>
       <c r="E24" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -1746,7 +1746,7 @@
         <v>2048</v>
       </c>
       <c r="E25" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -1773,7 +1773,7 @@
         <v>1919</v>
       </c>
       <c r="E26" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -1800,7 +1800,7 @@
         <v>1934</v>
       </c>
       <c r="E27" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -1827,7 +1827,7 @@
         <v>2305</v>
       </c>
       <c r="E28" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1854,7 +1854,7 @@
         <v>2218</v>
       </c>
       <c r="E29" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -1881,7 +1881,7 @@
         <v>2009</v>
       </c>
       <c r="E30" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
@@ -1908,7 +1908,7 @@
         <v>1833</v>
       </c>
       <c r="E31" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -1935,7 +1935,7 @@
         <v>2201</v>
       </c>
       <c r="E32" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -1962,7 +1962,7 @@
         <v>1252</v>
       </c>
       <c r="E33" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>7</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -1989,7 +1989,7 @@
         <v>1700</v>
       </c>
       <c r="E34" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
@@ -2016,7 +2016,7 @@
         <v>1448</v>
       </c>
       <c r="E35" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>1749</v>
       </c>
       <c r="E36" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -2070,7 +2070,7 @@
         <v>2020</v>
       </c>
       <c r="E37" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
@@ -2097,7 +2097,7 @@
         <v>2031</v>
       </c>
       <c r="E38" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
@@ -2124,7 +2124,7 @@
         <v>2234</v>
       </c>
       <c r="E39" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
@@ -2151,7 +2151,7 @@
         <v>1714</v>
       </c>
       <c r="E40" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
@@ -2178,7 +2178,7 @@
         <v>1930</v>
       </c>
       <c r="E41" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
@@ -2205,7 +2205,7 @@
         <v>2020</v>
       </c>
       <c r="E42" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
@@ -2232,7 +2232,7 @@
         <v>1838</v>
       </c>
       <c r="E43" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
@@ -2259,7 +2259,7 @@
         <v>1901</v>
       </c>
       <c r="E44" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
@@ -2286,7 +2286,7 @@
         <v>1608</v>
       </c>
       <c r="E45" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
@@ -2313,7 +2313,7 @@
         <v>1949</v>
       </c>
       <c r="E46" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
@@ -2340,7 +2340,7 @@
         <v>1751</v>
       </c>
       <c r="E47" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
@@ -2367,7 +2367,7 @@
         <v>1731</v>
       </c>
       <c r="E48" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
@@ -2394,7 +2394,7 @@
         <v>1820</v>
       </c>
       <c r="E49" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
@@ -2421,7 +2421,7 @@
         <v>1749</v>
       </c>
       <c r="E50" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -2448,7 +2448,7 @@
         <v>1739</v>
       </c>
       <c r="E51" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
@@ -2475,7 +2475,7 @@
         <v>1053</v>
       </c>
       <c r="E52" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
@@ -2502,7 +2502,7 @@
         <v>1747</v>
       </c>
       <c r="E53" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -2529,7 +2529,7 @@
         <v>1033</v>
       </c>
       <c r="E54" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
@@ -2556,7 +2556,7 @@
         <v>1043</v>
       </c>
       <c r="E55" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
@@ -2583,7 +2583,7 @@
         <v>1904</v>
       </c>
       <c r="E56" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
@@ -2610,7 +2610,7 @@
         <v>1904</v>
       </c>
       <c r="E57" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
@@ -2637,7 +2637,7 @@
         <v>1320</v>
       </c>
       <c r="E58" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
@@ -2664,7 +2664,7 @@
         <v>1747</v>
       </c>
       <c r="E59" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
@@ -2691,7 +2691,7 @@
         <v>2031</v>
       </c>
       <c r="E60" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
@@ -2718,7 +2718,7 @@
         <v>2031</v>
       </c>
       <c r="E61" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
@@ -2745,7 +2745,7 @@
         <v>2034</v>
       </c>
       <c r="E62" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
@@ -2772,7 +2772,7 @@
         <v>1906</v>
       </c>
       <c r="E63" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
@@ -2799,7 +2799,7 @@
         <v>1800</v>
       </c>
       <c r="E64" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
@@ -2826,7 +2826,7 @@
         <v>1827</v>
       </c>
       <c r="E65" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
@@ -2853,7 +2853,7 @@
         <v>2300</v>
       </c>
       <c r="E66" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
@@ -2880,7 +2880,7 @@
         <v>2346</v>
       </c>
       <c r="E67" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
@@ -2907,7 +2907,7 @@
         <v>2354</v>
       </c>
       <c r="E68" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
@@ -2934,7 +2934,7 @@
         <v>2354</v>
       </c>
       <c r="E69" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
@@ -2961,7 +2961,7 @@
         <v>2354</v>
       </c>
       <c r="E70" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -2988,7 +2988,7 @@
         <v>1330</v>
       </c>
       <c r="E71" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
@@ -3015,7 +3015,7 @@
         <v>1738</v>
       </c>
       <c r="E72" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
@@ -3042,7 +3042,7 @@
         <v>2012</v>
       </c>
       <c r="E73" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
@@ -3069,7 +3069,7 @@
         <v>1843</v>
       </c>
       <c r="E74" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
@@ -3096,7 +3096,7 @@
         <v>2022</v>
       </c>
       <c r="E75" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
@@ -3123,7 +3123,7 @@
         <v>1130</v>
       </c>
       <c r="E76" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>1322</v>
       </c>
       <c r="E77" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
@@ -3177,7 +3177,7 @@
         <v>1833</v>
       </c>
       <c r="E78" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
@@ -3204,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="E79" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>1832</v>
       </c>
       <c r="E80" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
@@ -3258,7 +3258,7 @@
         <v>1620</v>
       </c>
       <c r="E81" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
@@ -3285,7 +3285,7 @@
         <v>1002</v>
       </c>
       <c r="E82" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
@@ -3312,7 +3312,7 @@
         <v>1733</v>
       </c>
       <c r="E83" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
@@ -3339,7 +3339,7 @@
         <v>1854</v>
       </c>
       <c r="E84" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
@@ -3366,7 +3366,7 @@
         <v>2125</v>
       </c>
       <c r="E85" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
@@ -3393,7 +3393,7 @@
         <v>2127</v>
       </c>
       <c r="E86" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
@@ -3420,7 +3420,7 @@
         <v>1113</v>
       </c>
       <c r="E87" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         <v>2038</v>
       </c>
       <c r="E88" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
@@ -3474,7 +3474,7 @@
         <v>1011</v>
       </c>
       <c r="E89" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
@@ -3501,7 +3501,7 @@
         <v>1012</v>
       </c>
       <c r="E90" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
@@ -3528,7 +3528,7 @@
         <v>1014</v>
       </c>
       <c r="E91" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
@@ -3555,7 +3555,7 @@
         <v>1917</v>
       </c>
       <c r="E92" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
@@ -3582,7 +3582,7 @@
         <v>2043</v>
       </c>
       <c r="E93" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
@@ -3609,7 +3609,7 @@
         <v>1804</v>
       </c>
       <c r="E94" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
@@ -3636,7 +3636,7 @@
         <v>1829</v>
       </c>
       <c r="E95" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
@@ -3663,7 +3663,7 @@
         <v>1112</v>
       </c>
       <c r="E96" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
         <v>1954</v>
       </c>
       <c r="E97" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
@@ -3717,7 +3717,7 @@
         <v>2121</v>
       </c>
       <c r="E98" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
@@ -3744,7 +3744,7 @@
         <v>1107</v>
       </c>
       <c r="E99" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
@@ -3771,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>7</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
@@ -3798,7 +3798,7 @@
         <v>1043</v>
       </c>
       <c r="E101" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
@@ -3825,7 +3825,7 @@
         <v>1218</v>
       </c>
       <c r="E102" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>7</v>
@@ -3852,7 +3852,7 @@
         <v>2243</v>
       </c>
       <c r="E103" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>7</v>
@@ -3879,7 +3879,7 @@
         <v>2316</v>
       </c>
       <c r="E104" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
@@ -3906,7 +3906,7 @@
         <v>2320</v>
       </c>
       <c r="E105" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
@@ -3933,7 +3933,7 @@
         <v>1946</v>
       </c>
       <c r="E106" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
@@ -3960,7 +3960,7 @@
         <v>1458</v>
       </c>
       <c r="E107" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
@@ -3987,7 +3987,7 @@
         <v>1855</v>
       </c>
       <c r="E108" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>7</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
@@ -4014,7 +4014,7 @@
         <v>1137</v>
       </c>
       <c r="E109" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
@@ -4041,7 +4041,7 @@
         <v>1744</v>
       </c>
       <c r="E110" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
@@ -4068,7 +4068,7 @@
         <v>1829</v>
       </c>
       <c r="E111" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
@@ -4095,7 +4095,7 @@
         <v>1930</v>
       </c>
       <c r="E112" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
@@ -4122,7 +4122,7 @@
         <v>1915</v>
       </c>
       <c r="E113" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
@@ -4149,7 +4149,7 @@
         <v>1919</v>
       </c>
       <c r="E114" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
@@ -4176,7 +4176,7 @@
         <v>1921</v>
       </c>
       <c r="E115" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
@@ -4203,7 +4203,7 @@
         <v>1940</v>
       </c>
       <c r="E116" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
@@ -4230,7 +4230,7 @@
         <v>1808</v>
       </c>
       <c r="E117" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>7</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
@@ -4257,7 +4257,7 @@
         <v>1811</v>
       </c>
       <c r="E118" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
@@ -4284,7 +4284,7 @@
         <v>1812</v>
       </c>
       <c r="E119" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
@@ -4311,7 +4311,7 @@
         <v>1627</v>
       </c>
       <c r="E120" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -4338,7 +4338,7 @@
         <v>1741</v>
       </c>
       <c r="E121" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
@@ -4365,7 +4365,7 @@
         <v>1803</v>
       </c>
       <c r="E122" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
@@ -4392,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="E123" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
@@ -4419,7 +4419,7 @@
         <v>15</v>
       </c>
       <c r="E124" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
@@ -4446,7 +4446,7 @@
         <v>16</v>
       </c>
       <c r="E125" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
@@ -4473,7 +4473,7 @@
         <v>17</v>
       </c>
       <c r="E126" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
@@ -4500,7 +4500,7 @@
         <v>1050</v>
       </c>
       <c r="E127" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
@@ -4527,7 +4527,7 @@
         <v>1051</v>
       </c>
       <c r="E128" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
         <v>1051</v>
       </c>
       <c r="E129" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
@@ -4581,7 +4581,7 @@
         <v>1052</v>
       </c>
       <c r="E130" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
@@ -4608,7 +4608,7 @@
         <v>1053</v>
       </c>
       <c r="E131" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
@@ -4635,7 +4635,7 @@
         <v>1150</v>
       </c>
       <c r="E132" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
@@ -4662,7 +4662,7 @@
         <v>1622</v>
       </c>
       <c r="E133" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
@@ -4689,7 +4689,7 @@
         <v>18</v>
       </c>
       <c r="E134" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
@@ -4716,7 +4716,7 @@
         <v>1035</v>
       </c>
       <c r="E135" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
@@ -4743,7 +4743,7 @@
         <v>1038</v>
       </c>
       <c r="E136" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
@@ -4770,7 +4770,7 @@
         <v>1236</v>
       </c>
       <c r="E137" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
@@ -4797,7 +4797,7 @@
         <v>1452</v>
       </c>
       <c r="E138" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
@@ -4824,7 +4824,7 @@
         <v>1334</v>
       </c>
       <c r="E139" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>7</v>
@@ -4851,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="E140" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>7</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>7</v>
@@ -4878,7 +4878,7 @@
         <v>1754</v>
       </c>
       <c r="E141" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
@@ -4905,7 +4905,7 @@
         <v>2245</v>
       </c>
       <c r="E142" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
@@ -4932,7 +4932,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>7</v>
@@ -4959,7 +4959,7 @@
         <v>21</v>
       </c>
       <c r="E144" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>7</v>
@@ -4986,7 +4986,7 @@
         <v>1852</v>
       </c>
       <c r="E145" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>7</v>
@@ -5013,7 +5013,7 @@
         <v>1646</v>
       </c>
       <c r="E146" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>7</v>
@@ -5040,7 +5040,7 @@
         <v>1828</v>
       </c>
       <c r="E147" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>7</v>
@@ -5067,7 +5067,7 @@
         <v>1737</v>
       </c>
       <c r="E148" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
@@ -5094,7 +5094,7 @@
         <v>1844</v>
       </c>
       <c r="E149" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>7</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>7</v>
@@ -5121,7 +5121,7 @@
         <v>1415</v>
       </c>
       <c r="E150" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>7</v>
@@ -5148,7 +5148,7 @@
         <v>1449</v>
       </c>
       <c r="E151" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>7</v>
@@ -5175,7 +5175,7 @@
         <v>1508</v>
       </c>
       <c r="E152" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>7</v>
@@ -5202,7 +5202,7 @@
         <v>1512</v>
       </c>
       <c r="E153" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>7</v>
@@ -5229,7 +5229,7 @@
         <v>1525</v>
       </c>
       <c r="E154" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
@@ -5256,7 +5256,7 @@
         <v>1116</v>
       </c>
       <c r="E155" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>7</v>
@@ -5283,7 +5283,7 @@
         <v>1936</v>
       </c>
       <c r="E156" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>7</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>7</v>
@@ -5310,7 +5310,7 @@
         <v>1845</v>
       </c>
       <c r="E157" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>7</v>
@@ -5337,7 +5337,7 @@
         <v>2006</v>
       </c>
       <c r="E158" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>7</v>
@@ -5364,7 +5364,7 @@
         <v>2121</v>
       </c>
       <c r="E159" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>7</v>
@@ -5391,7 +5391,7 @@
         <v>1915</v>
       </c>
       <c r="E160" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>7</v>
@@ -5418,7 +5418,7 @@
         <v>1452</v>
       </c>
       <c r="E161" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>7</v>
@@ -5445,7 +5445,7 @@
         <v>2049</v>
       </c>
       <c r="E162" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>7</v>
@@ -5472,7 +5472,7 @@
         <v>1701</v>
       </c>
       <c r="E163" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>7</v>
@@ -5499,7 +5499,7 @@
         <v>1832</v>
       </c>
       <c r="E164" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>7</v>
@@ -5526,7 +5526,7 @@
         <v>2132</v>
       </c>
       <c r="E165" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>7</v>
@@ -5553,7 +5553,7 @@
         <v>1924</v>
       </c>
       <c r="E166" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>7</v>
@@ -5580,7 +5580,7 @@
         <v>2013</v>
       </c>
       <c r="E167" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         <v>2200</v>
       </c>
       <c r="E168" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>7</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>7</v>
@@ -5634,7 +5634,7 @@
         <v>1532</v>
       </c>
       <c r="E169" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>7</v>
@@ -5661,7 +5661,7 @@
         <v>1533</v>
       </c>
       <c r="E170" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>7</v>
@@ -5688,7 +5688,7 @@
         <v>2009</v>
       </c>
       <c r="E171" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>7</v>
@@ -5715,7 +5715,7 @@
         <v>1950</v>
       </c>
       <c r="E172" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>7</v>
@@ -5742,7 +5742,7 @@
         <v>1407</v>
       </c>
       <c r="E173" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>7</v>
@@ -5769,7 +5769,7 @@
         <v>1408</v>
       </c>
       <c r="E174" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>7</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>7</v>
@@ -5796,7 +5796,7 @@
         <v>1407</v>
       </c>
       <c r="E175" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>7</v>
@@ -5823,7 +5823,7 @@
         <v>1911</v>
       </c>
       <c r="E176" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>7</v>
@@ -5850,7 +5850,7 @@
         <v>22</v>
       </c>
       <c r="E177" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>7</v>
@@ -5877,7 +5877,7 @@
         <v>1015</v>
       </c>
       <c r="E178" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>7</v>
@@ -5904,7 +5904,7 @@
         <v>2054</v>
       </c>
       <c r="E179" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>7</v>
@@ -5931,7 +5931,7 @@
         <v>1421</v>
       </c>
       <c r="E180" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>7</v>
@@ -5958,7 +5958,7 @@
         <v>1714</v>
       </c>
       <c r="E181" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>7</v>
@@ -5985,7 +5985,7 @@
         <v>1430</v>
       </c>
       <c r="E182" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>7</v>
@@ -6012,7 +6012,7 @@
         <v>1536</v>
       </c>
       <c r="E183" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>7</v>
@@ -6039,7 +6039,7 @@
         <v>1537</v>
       </c>
       <c r="E184" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>7</v>
@@ -6066,7 +6066,7 @@
         <v>1625</v>
       </c>
       <c r="E185" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>7</v>
@@ -6093,7 +6093,7 @@
         <v>1019</v>
       </c>
       <c r="E186" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>7</v>
@@ -6120,7 +6120,7 @@
         <v>1026</v>
       </c>
       <c r="E187" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>7</v>
@@ -6147,7 +6147,7 @@
         <v>1620</v>
       </c>
       <c r="E188" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>7</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>7</v>
@@ -6174,7 +6174,7 @@
         <v>1620</v>
       </c>
       <c r="E189" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>7</v>
@@ -6201,7 +6201,7 @@
         <v>1620</v>
       </c>
       <c r="E190" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
@@ -6228,7 +6228,7 @@
         <v>1621</v>
       </c>
       <c r="E191" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>7</v>
@@ -6255,7 +6255,7 @@
         <v>1622</v>
       </c>
       <c r="E192" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>7</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>7</v>
@@ -6282,7 +6282,7 @@
         <v>1623</v>
       </c>
       <c r="E193" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>7</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>7</v>
@@ -6309,7 +6309,7 @@
         <v>1623</v>
       </c>
       <c r="E194" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>7</v>
@@ -6336,7 +6336,7 @@
         <v>1625</v>
       </c>
       <c r="E195" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>7</v>
@@ -6363,7 +6363,7 @@
         <v>1626</v>
       </c>
       <c r="E196" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>7</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>7</v>
@@ -6390,7 +6390,7 @@
         <v>1636</v>
       </c>
       <c r="E197" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>7</v>
@@ -6417,7 +6417,7 @@
         <v>1701</v>
       </c>
       <c r="E198" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>7</v>
@@ -6444,7 +6444,7 @@
         <v>1505</v>
       </c>
       <c r="E199" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>7</v>
@@ -6471,7 +6471,7 @@
         <v>1003</v>
       </c>
       <c r="E200" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>7</v>
@@ -6498,7 +6498,7 @@
         <v>1116</v>
       </c>
       <c r="E201" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>7</v>
@@ -6525,7 +6525,7 @@
         <v>1325</v>
       </c>
       <c r="E202" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>7</v>
@@ -6552,7 +6552,7 @@
         <v>1832</v>
       </c>
       <c r="E203" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>7</v>
@@ -6579,7 +6579,7 @@
         <v>1539</v>
       </c>
       <c r="E204" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>7</v>
@@ -6606,7 +6606,7 @@
         <v>1110</v>
       </c>
       <c r="E205" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>7</v>
@@ -6633,7 +6633,7 @@
         <v>1429</v>
       </c>
       <c r="E206" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>7</v>
@@ -6660,7 +6660,7 @@
         <v>1103</v>
       </c>
       <c r="E207" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>7</v>
@@ -6687,7 +6687,7 @@
         <v>1915</v>
       </c>
       <c r="E208" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>7</v>
@@ -6714,7 +6714,7 @@
         <v>1430</v>
       </c>
       <c r="E209" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>7</v>
@@ -6741,7 +6741,7 @@
         <v>1029</v>
       </c>
       <c r="E210" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>7</v>
@@ -6768,7 +6768,7 @@
         <v>2033</v>
       </c>
       <c r="E211" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>7</v>
@@ -6795,7 +6795,7 @@
         <v>2046</v>
       </c>
       <c r="E212" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>7</v>
@@ -6822,7 +6822,7 @@
         <v>1215</v>
       </c>
       <c r="E213" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>7</v>
@@ -6849,7 +6849,7 @@
         <v>1817</v>
       </c>
       <c r="E214" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>7</v>
@@ -6876,7 +6876,7 @@
         <v>1215</v>
       </c>
       <c r="E215" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>7</v>
@@ -6903,7 +6903,7 @@
         <v>2317</v>
       </c>
       <c r="E216" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>7</v>
@@ -6930,7 +6930,7 @@
         <v>2320</v>
       </c>
       <c r="E217" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>7</v>
@@ -6957,7 +6957,7 @@
         <v>2328</v>
       </c>
       <c r="E218" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
@@ -6984,7 +6984,7 @@
         <v>2336</v>
       </c>
       <c r="E219" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>7</v>
@@ -7011,7 +7011,7 @@
         <v>1313</v>
       </c>
       <c r="E220" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>7</v>
@@ -7038,7 +7038,7 @@
         <v>1320</v>
       </c>
       <c r="E221" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>7</v>
@@ -7065,7 +7065,7 @@
         <v>1432</v>
       </c>
       <c r="E222" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>7</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>7</v>
@@ -7092,7 +7092,7 @@
         <v>1442</v>
       </c>
       <c r="E223" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>7</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>7</v>
@@ -7119,7 +7119,7 @@
         <v>1443</v>
       </c>
       <c r="E224" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>7</v>
@@ -7146,7 +7146,7 @@
         <v>1445</v>
       </c>
       <c r="E225" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>7</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>7</v>
@@ -7173,7 +7173,7 @@
         <v>1453</v>
       </c>
       <c r="E226" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>7</v>
@@ -7200,7 +7200,7 @@
         <v>1536</v>
       </c>
       <c r="E227" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>7</v>
@@ -7227,7 +7227,7 @@
         <v>1713</v>
       </c>
       <c r="E228" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>7</v>
@@ -7254,7 +7254,7 @@
         <v>2319</v>
       </c>
       <c r="E229" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>7</v>
@@ -7281,7 +7281,7 @@
         <v>2328</v>
       </c>
       <c r="E230" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>7</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>7</v>
@@ -7308,7 +7308,7 @@
         <v>2337</v>
       </c>
       <c r="E231" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>7</v>
@@ -7335,7 +7335,7 @@
         <v>1305</v>
       </c>
       <c r="E232" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>7</v>
@@ -7362,7 +7362,7 @@
         <v>1348</v>
       </c>
       <c r="E233" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>7</v>
@@ -7389,7 +7389,7 @@
         <v>1628</v>
       </c>
       <c r="E234" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>7</v>
@@ -7416,7 +7416,7 @@
         <v>1915</v>
       </c>
       <c r="E235" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>7</v>
@@ -7443,7 +7443,7 @@
         <v>1711</v>
       </c>
       <c r="E236" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>7</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>7</v>
@@ -7470,7 +7470,7 @@
         <v>1736</v>
       </c>
       <c r="E237" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>7</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>7</v>
@@ -7497,7 +7497,7 @@
         <v>1920</v>
       </c>
       <c r="E238" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>7</v>
@@ -7524,7 +7524,7 @@
         <v>1946</v>
       </c>
       <c r="E239" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>7</v>
@@ -7551,7 +7551,7 @@
         <v>1012</v>
       </c>
       <c r="E240" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>7</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>7</v>
@@ -7578,7 +7578,7 @@
         <v>1103</v>
       </c>
       <c r="E241" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>7</v>
@@ -7605,7 +7605,7 @@
         <v>1134</v>
       </c>
       <c r="E242" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>7</v>
@@ -7632,7 +7632,7 @@
         <v>2126</v>
       </c>
       <c r="E243" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>7</v>
@@ -7659,7 +7659,7 @@
         <v>2229</v>
       </c>
       <c r="E244" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>7</v>
@@ -7686,7 +7686,7 @@
         <v>1507</v>
       </c>
       <c r="E245" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -7701,7 +7701,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>7</v>
@@ -7713,7 +7713,7 @@
         <v>1519</v>
       </c>
       <c r="E246" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <v>15522453452</v>
+        <v>15522</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>7</v>
@@ -7740,7 +7740,7 @@
         <v>2005</v>
       </c>
       <c r="E247" s="4">
-        <v>13018811509</v>
+        <v>15522</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
